--- a/Data/Metadata/Angiosperms/powo/Brassicaceae.xlsx
+++ b/Data/Metadata/Angiosperms/powo/Brassicaceae.xlsx
@@ -822,7 +822,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(L.) Andrz. ex Besser</t>
+          <t>(L.) Besser</t>
         </is>
       </c>
       <c r="E9" t="b">
